--- a/labels_Q30.xlsx
+++ b/labels_Q30.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au536457_uni_au_dk/Documents/Desktop/Bælgfrugter Fie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au473419_uni_au_dk/Documents/Desktop/PHD/Theme 4 - Survey/Data/pulses21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DC941E5-EBFB-44E4-8E5E-4BE9D7A9BAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{2DC941E5-EBFB-44E4-8E5E-4BE9D7A9BAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3214059C-B52A-4B31-B924-61E7280E223F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{5CD361D4-044E-478F-987A-A4C343269E59}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{5CD361D4-044E-478F-987A-A4C343269E59}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -509,128 +509,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7675E791-4E30-4049-B3EB-62BAEF3CF398}">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="39" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="39" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="26" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="26" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="52" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="39" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="26" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="39" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="66" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" ht="65" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" ht="26" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" ht="26" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" ht="39" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" ht="39" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="26" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" ht="26" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" ht="39" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="26" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="52" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="26" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="26" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" ht="52" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="26" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" ht="39" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" ht="39" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
